--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaPrograms\ExcelManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FFF8A-07C0-473E-AFA9-F42CA381641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BBC31D9-6531-41DC-83C4-8A89BD686259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4BF7D997-9668-4E07-88CB-B819602ECB0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BD959729-9FBE-49EF-929A-D05D17B454EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,81 @@
     <t>Product</t>
   </si>
   <si>
+    <t>Promo Code</t>
+  </si>
+  <si>
+    <t>G/L Account</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Student #</t>
+  </si>
+  <si>
+    <t>Student Type</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Homeroom</t>
+  </si>
+  <si>
+    <t>Billed To</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ACH Status</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Payment on Account</t>
+  </si>
+  <si>
+    <t>Batch ID</t>
+  </si>
+  <si>
+    <t>Batch Date</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Txn Source</t>
+  </si>
+  <si>
+    <t>Sales Tag</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other 1</t>
+  </si>
+  <si>
+    <t>Other 2</t>
+  </si>
+  <si>
+    <t>Other 3</t>
+  </si>
+  <si>
+    <t>Other 4</t>
+  </si>
+  <si>
+    <t>Other 5</t>
+  </si>
+  <si>
     <t>T924JII7D79U7RE</t>
   </si>
   <si>
@@ -55,81 +130,6 @@
   </si>
   <si>
     <t>LIC Football Merch</t>
-  </si>
-  <si>
-    <t>Promo Code</t>
-  </si>
-  <si>
-    <t>G/L Account</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>Student #</t>
-  </si>
-  <si>
-    <t>Student Type</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Homeroom</t>
-  </si>
-  <si>
-    <t>Billed To</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>ACH Status</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Payment on Account</t>
-  </si>
-  <si>
-    <t>Batch ID</t>
-  </si>
-  <si>
-    <t>Batch Date</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>Txn Source</t>
-  </si>
-  <si>
-    <t>Sales Tag</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Other 1</t>
-  </si>
-  <si>
-    <t>Other 2</t>
-  </si>
-  <si>
-    <t>Other 3</t>
-  </si>
-  <si>
-    <t>Other 4</t>
-  </si>
-  <si>
-    <t>Other 5</t>
   </si>
   <si>
     <t>Visa ending in 2305</t>
@@ -166,26 +166,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -208,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -249,22 +236,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,7 +248,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -281,15 +256,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,32 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EF746C-DF86-4FF7-9735-74D7F3A20E2C}">
-  <dimension ref="A1:AE9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D5B1D-9E79-40CA-BF61-EF5239557ABC}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="20.28515625" style="3" customWidth="1"/>
-    <col min="7" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="12" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="3" customWidth="1"/>
-    <col min="16" max="19" width="9.140625" style="3"/>
-    <col min="20" max="20" width="12" style="3" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="3" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="3"/>
-    <col min="25" max="25" width="10.140625" style="3" customWidth="1"/>
-    <col min="26" max="31" width="9.140625" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -651,163 +599,151 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45284.881412037037</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4">
         <v>25</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>468092257</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="5">
         <v>45285.049305555556</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4" t="s">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="AB9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>